--- a/DATA/collate_cultivar_data_new_order/data/cleaned_and_sorted_kcp.xlsx
+++ b/DATA/collate_cultivar_data_new_order/data/cleaned_and_sorted_kcp.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,13 +405,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>42922</v>
+        <v>42921</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.122449</v>
+        <v>0.1371951</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,29 +422,29 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.1253644</v>
+        <v>0.1399417</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>42923</v>
+        <v>42922</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.1146497</v>
+        <v>0.122449</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>42923</v>
+        <v>42922</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.111465</v>
+        <v>0.1253644</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,29 +455,29 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.1050955</v>
+        <v>0.111465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>42924</v>
+        <v>42923</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.0790698</v>
+        <v>0.1146497</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>42924</v>
+        <v>42923</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.1209302</v>
+        <v>0.1050955</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -493,3114 +493,5171 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>42925</v>
+        <v>42924</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0.1170213</v>
+        <v>0.0790698</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>42926</v>
+        <v>42924</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0.0847458</v>
+        <v>0.1209302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>42934</v>
+        <v>42925</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.0743494</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>42935</v>
+        <v>42926</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>0.1029186</v>
+        <v>0.0847458</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>42935</v>
+        <v>42927</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.1046512</v>
+        <v>0.1407942</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>42936</v>
+        <v>42927</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0.1209964</v>
+        <v>0.0541516</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>42937</v>
+        <v>42930</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>0.0693069</v>
+        <v>0.1464435</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>42937</v>
+        <v>42934</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>0.0990099</v>
+        <v>0.0743494</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>42938</v>
+        <v>42934</v>
       </c>
       <c r="B18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>0.1077694</v>
+        <v>0.133829</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>42939</v>
+        <v>42935</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>0.1149733</v>
+        <v>0.0552326</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>42939</v>
+        <v>42935</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>0.0695187</v>
+        <v>0.1029186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>42940</v>
+        <v>42935</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.1107784</v>
+        <v>0.1382488</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>42940</v>
+        <v>42935</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>0.0988024</v>
+        <v>0.1046512</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>42940</v>
+        <v>42936</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>0.1127451</v>
+        <v>0.1209964</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>42941</v>
+        <v>42936</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>0.1190476</v>
+        <v>0.0676157</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>42942</v>
+        <v>42937</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>0.1221374</v>
+        <v>0.0990099</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>42942</v>
+        <v>42937</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>0.0839695</v>
+        <v>0.0693069</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>42942</v>
+        <v>42938</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>0.0763359</v>
+        <v>0.0676692</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>42946</v>
+        <v>42938</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>0.1030303</v>
+        <v>0.1077694</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>42947</v>
+        <v>42939</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C29">
-        <v>0.0993521</v>
+        <v>0.0695187</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>42947</v>
+        <v>42939</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.1187905</v>
+        <v>0.1149733</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>42949</v>
+        <v>42940</v>
       </c>
       <c r="B31">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.1420455</v>
+        <v>0.1127451</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>42949</v>
+        <v>42940</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32">
-        <v>0.08522730000000001</v>
+        <v>0.1107784</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>42950</v>
+        <v>42940</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C33">
-        <v>0.09230770000000001</v>
+        <v>0.0637255</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>42950</v>
+        <v>42940</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.1437908</v>
+        <v>0.0988024</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>42951</v>
+        <v>42941</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>0.1384615</v>
+        <v>0.1190476</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>42951</v>
+        <v>42941</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>0.1472868</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>42951</v>
+        <v>42942</v>
       </c>
       <c r="B37">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>0.124031</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>42952</v>
+        <v>42942</v>
       </c>
       <c r="B38">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>0.1088083</v>
+        <v>0.1221374</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>42952</v>
+        <v>42942</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>0.1243523</v>
+        <v>0.0839695</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>42953</v>
+        <v>42946</v>
       </c>
       <c r="B40">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>0.127551</v>
+        <v>0.1030303</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>42954</v>
+        <v>42947</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>0.107438</v>
+        <v>0.1187905</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>42954</v>
+        <v>42947</v>
       </c>
       <c r="B42">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>0.1487603</v>
+        <v>0.0518359</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>42954</v>
+        <v>42947</v>
       </c>
       <c r="B43">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>0.1157025</v>
+        <v>0.0993521</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>42955</v>
+        <v>42949</v>
       </c>
       <c r="B44">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>0.1172161</v>
+        <v>0.08522730000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>42955</v>
+        <v>42949</v>
       </c>
       <c r="B45">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>0.09157510000000001</v>
+        <v>0.1420455</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>42957</v>
+        <v>42950</v>
       </c>
       <c r="B46">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>0.1348315</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>42958</v>
+        <v>42950</v>
       </c>
       <c r="B47">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C47">
-        <v>0.1542289</v>
+        <v>0.1437908</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>42959</v>
+        <v>42951</v>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>0.102439</v>
+        <v>0.124031</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>42961</v>
+        <v>42951</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>0.1259259</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>42966</v>
+        <v>42951</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>0.145749</v>
+        <v>0.1472868</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>42966</v>
+        <v>42952</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>0.1318052</v>
+        <v>0.1088083</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>42968</v>
+        <v>42952</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C52">
-        <v>0.1502347</v>
+        <v>0.1243523</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>42970</v>
+        <v>42953</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>0.1158537</v>
+        <v>0.127551</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>42970</v>
+        <v>42954</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C54">
-        <v>0.1280488</v>
+        <v>0.0619835</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>42971</v>
+        <v>42954</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>0.1022727</v>
+        <v>0.107438</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>42971</v>
+        <v>42954</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C56">
-        <v>0.095679</v>
+        <v>0.1487603</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>42974</v>
+        <v>42954</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>0.1198157</v>
+        <v>0.1157025</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>42975</v>
+        <v>42955</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C58">
-        <v>0.1486811</v>
+        <v>0.0695971</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>42979</v>
+        <v>42955</v>
       </c>
       <c r="B59">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>0.1192308</v>
+        <v>0.1172161</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>42979</v>
+        <v>42955</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C60">
-        <v>0.1232493</v>
+        <v>0.09157510000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>42979</v>
+        <v>42956</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C61">
-        <v>0.1176471</v>
+        <v>0.0634921</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>42980</v>
+        <v>42957</v>
       </c>
       <c r="B62">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C62">
-        <v>0.0825472</v>
+        <v>0.1348315</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>42980</v>
+        <v>42957</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C63">
-        <v>0.0943396</v>
+        <v>0.1573034</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>42981</v>
+        <v>42958</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C64">
-        <v>0.07142859999999999</v>
+        <v>0.1542289</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>42986</v>
+        <v>42959</v>
       </c>
       <c r="B65">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C65">
-        <v>0.07853400000000001</v>
+        <v>0.102439</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>42987</v>
+        <v>42961</v>
       </c>
       <c r="B66">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C66">
-        <v>0.1138015</v>
+        <v>0.0814815</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>42987</v>
+        <v>42961</v>
       </c>
       <c r="B67">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C67">
-        <v>0.1138015</v>
+        <v>0.1259259</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>42987</v>
+        <v>42962</v>
       </c>
       <c r="B68">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C68">
-        <v>0.1233596</v>
+        <v>0.1741573</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>42988</v>
+        <v>42962</v>
       </c>
       <c r="B69">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>0.1021021</v>
+        <v>0.0674157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>42989</v>
+        <v>42966</v>
       </c>
       <c r="B70">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C70">
-        <v>0.0826446</v>
+        <v>0.145749</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>42989</v>
+        <v>42966</v>
       </c>
       <c r="B71">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C71">
-        <v>0.0751445</v>
+        <v>0.1318052</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>42990</v>
+        <v>42966</v>
       </c>
       <c r="B72">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C72">
-        <v>0.1170213</v>
+        <v>0.1619433</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>42992</v>
+        <v>42967</v>
       </c>
       <c r="B73">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C73">
-        <v>0.125</v>
+        <v>0.1698113</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>42992</v>
+        <v>42967</v>
       </c>
       <c r="B74">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C74">
-        <v>0.09230770000000001</v>
+        <v>0.0808625</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>42993</v>
+        <v>42968</v>
       </c>
       <c r="B75">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C75">
-        <v>0.0786517</v>
+        <v>0.1502347</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>42993</v>
+        <v>42970</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C76">
-        <v>0.1155378</v>
+        <v>0.1280488</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>42993</v>
+        <v>42970</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C77">
-        <v>0.0898876</v>
+        <v>0.1158537</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>42994</v>
+        <v>42971</v>
       </c>
       <c r="B78">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C78">
-        <v>0.1049563</v>
+        <v>0.1022727</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>42994</v>
+        <v>42971</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C79">
-        <v>0.1119792</v>
+        <v>0.0606061</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>42994</v>
+        <v>42971</v>
       </c>
       <c r="B80">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C80">
-        <v>0.0932945</v>
+        <v>0.1628788</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>42995</v>
+        <v>42971</v>
       </c>
       <c r="B81">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C81">
-        <v>0.1072261</v>
+        <v>0.095679</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>42995</v>
+        <v>42974</v>
       </c>
       <c r="B82">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C82">
-        <v>0.09843399999999999</v>
+        <v>0.1198157</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>42995</v>
+        <v>42975</v>
       </c>
       <c r="B83">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C83">
-        <v>0.114094</v>
+        <v>0.1486811</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>42996</v>
+        <v>42975</v>
       </c>
       <c r="B84">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C84">
-        <v>0.1305263</v>
+        <v>0.17506</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>42997</v>
+        <v>42979</v>
       </c>
       <c r="B85">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C85">
-        <v>0.08398949999999999</v>
+        <v>0.1192308</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>42998</v>
+        <v>42979</v>
       </c>
       <c r="B86">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C86">
-        <v>0.1011673</v>
+        <v>0.1232493</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>42998</v>
+        <v>42979</v>
       </c>
       <c r="B87">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C87">
-        <v>0.0828829</v>
+        <v>0.1176471</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43000</v>
+        <v>42980</v>
       </c>
       <c r="B88">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C88">
-        <v>0.094697</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43000</v>
+        <v>42980</v>
       </c>
       <c r="B89">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C89">
-        <v>0.125</v>
+        <v>0.0825472</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43001</v>
+        <v>42981</v>
       </c>
       <c r="B90">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C90">
-        <v>0.08119659999999999</v>
+        <v>0.06530610000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43001</v>
+        <v>42981</v>
       </c>
       <c r="B91">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C91">
-        <v>0.08883249999999999</v>
+        <v>0.07142859999999999</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43001</v>
+        <v>42982</v>
       </c>
       <c r="B92">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C92">
-        <v>0.0705128</v>
+        <v>0.0533333</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43002</v>
+        <v>42986</v>
       </c>
       <c r="B93">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C93">
-        <v>0.0841837</v>
+        <v>0.07853400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43002</v>
+        <v>42987</v>
       </c>
       <c r="B94">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C94">
-        <v>0.0841837</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43002</v>
+        <v>42987</v>
       </c>
       <c r="B95">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C95">
-        <v>0.1041667</v>
+        <v>0.0524934</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43004</v>
+        <v>42987</v>
       </c>
       <c r="B96">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C96">
-        <v>0.0943396</v>
+        <v>0.1138015</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43004</v>
+        <v>42987</v>
       </c>
       <c r="B97">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C97">
-        <v>0.09905659999999999</v>
+        <v>0.1233596</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43006</v>
+        <v>42988</v>
       </c>
       <c r="B98">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C98">
-        <v>0.0888383</v>
+        <v>0.0507614</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43006</v>
+        <v>42988</v>
       </c>
       <c r="B99">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C99">
-        <v>0.07383969999999999</v>
+        <v>0.1021021</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43006</v>
+        <v>42989</v>
       </c>
       <c r="B100">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C100">
-        <v>0.07805910000000001</v>
+        <v>0.1404959</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43007</v>
+        <v>42989</v>
       </c>
       <c r="B101">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C101">
-        <v>0.0835735</v>
+        <v>0.0751445</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43007</v>
+        <v>42989</v>
       </c>
       <c r="B102">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C102">
-        <v>0.1066282</v>
+        <v>0.1416185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43007</v>
+        <v>42989</v>
       </c>
       <c r="B103">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C103">
-        <v>0.08461539999999999</v>
+        <v>0.0826446</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43008</v>
+        <v>42990</v>
       </c>
       <c r="B104">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C104">
-        <v>0.1163311</v>
+        <v>0.0668449</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43008</v>
+        <v>42990</v>
       </c>
       <c r="B105">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C105">
-        <v>0.08053689999999999</v>
+        <v>0.1170213</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43008</v>
+        <v>42991</v>
       </c>
       <c r="B106">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C106">
-        <v>0.09090910000000001</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43009</v>
+        <v>42991</v>
       </c>
       <c r="B107">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C107">
-        <v>0.1840278</v>
+        <v>0.1456693</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43010</v>
+        <v>42992</v>
       </c>
       <c r="B108">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C108">
-        <v>0.1278863</v>
+        <v>0.1435897</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43010</v>
+        <v>42992</v>
       </c>
       <c r="B109">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C109">
-        <v>0.1332149</v>
+        <v>0.1418919</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43012</v>
+        <v>42992</v>
       </c>
       <c r="B110">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C110">
-        <v>0.1945525</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43013</v>
+        <v>42992</v>
       </c>
       <c r="B111">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C111">
-        <v>0.1679389</v>
+        <v>0.09230770000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43013</v>
+        <v>42992</v>
       </c>
       <c r="B112">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C112">
-        <v>0.1122807</v>
+        <v>0.0506757</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43013</v>
+        <v>42992</v>
       </c>
       <c r="B113">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C113">
-        <v>0.1259542</v>
+        <v>0.1428571</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43014</v>
+        <v>42993</v>
       </c>
       <c r="B114">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C114">
-        <v>0.1254545</v>
+        <v>0.1155378</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43014</v>
+        <v>42993</v>
       </c>
       <c r="B115">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C115">
-        <v>0.1236364</v>
+        <v>0.0786517</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43015</v>
+        <v>42993</v>
       </c>
       <c r="B116">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C116">
-        <v>0.1941075</v>
+        <v>0.059761</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43015</v>
+        <v>42993</v>
       </c>
       <c r="B117">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C117">
-        <v>0.1403813</v>
+        <v>0.1356784</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43018</v>
+        <v>42993</v>
       </c>
       <c r="B118">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C118">
-        <v>0.1855422</v>
+        <v>0.0898876</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43019</v>
+        <v>42994</v>
       </c>
       <c r="B119">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C119">
-        <v>0.1828442</v>
+        <v>0.1049563</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43019</v>
+        <v>42994</v>
       </c>
       <c r="B120">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C120">
-        <v>0.1901408</v>
+        <v>0.0612245</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43019</v>
+        <v>42994</v>
       </c>
       <c r="B121">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C121">
-        <v>0.1267606</v>
+        <v>0.1119792</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43020</v>
+        <v>42994</v>
       </c>
       <c r="B122">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C122">
-        <v>0.1637168</v>
+        <v>0.0932945</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43020</v>
+        <v>42995</v>
       </c>
       <c r="B123">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C123">
-        <v>0.1438053</v>
+        <v>0.114094</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43020</v>
+        <v>42995</v>
       </c>
       <c r="B124">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C124">
-        <v>0.1840909</v>
+        <v>0.1072261</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43021</v>
+        <v>42995</v>
       </c>
       <c r="B125">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C125">
-        <v>0.1709559</v>
+        <v>0.09843399999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43021</v>
+        <v>42996</v>
       </c>
       <c r="B126">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C126">
-        <v>0.1943888</v>
+        <v>0.1305263</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43021</v>
+        <v>42996</v>
       </c>
       <c r="B127">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C127">
-        <v>0.1268382</v>
+        <v>0.1389474</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43035</v>
+        <v>42997</v>
       </c>
       <c r="B128">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C128">
-        <v>0.1889764</v>
+        <v>0.08398949999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43036</v>
+        <v>42998</v>
       </c>
       <c r="B129">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C129">
-        <v>0.1393324</v>
+        <v>0.0522523</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43036</v>
+        <v>42998</v>
       </c>
       <c r="B130">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C130">
-        <v>0.1872279</v>
+        <v>0.0828829</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43037</v>
+        <v>42998</v>
       </c>
       <c r="B131">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C131">
-        <v>0.1193353</v>
+        <v>0.1011673</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43037</v>
+        <v>42999</v>
       </c>
       <c r="B132">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C132">
-        <v>0.1767372</v>
+        <v>0.0539084</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43038</v>
+        <v>43000</v>
       </c>
       <c r="B133">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C133">
-        <v>0.1136045</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43038</v>
+        <v>43000</v>
       </c>
       <c r="B134">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C134">
-        <v>0.1458626</v>
+        <v>0.094697</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43040</v>
+        <v>43000</v>
       </c>
       <c r="B135">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C135">
-        <v>0.2715827</v>
+        <v>0.1466667</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43042</v>
+        <v>43001</v>
       </c>
       <c r="B136">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C136">
-        <v>0.3282548</v>
+        <v>0.08119659999999999</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43043</v>
+        <v>43001</v>
       </c>
       <c r="B137">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="C137">
-        <v>0.3365617</v>
+        <v>0.08883249999999999</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43045</v>
+        <v>43001</v>
       </c>
       <c r="B138">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C138">
-        <v>0.3890411</v>
+        <v>0.0705128</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>43046</v>
+        <v>43002</v>
       </c>
       <c r="B139">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C139">
-        <v>0.343879</v>
+        <v>0.1352041</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>43048</v>
+        <v>43002</v>
       </c>
       <c r="B140">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="C140">
-        <v>0.2710997</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>43050</v>
+        <v>43002</v>
       </c>
       <c r="B141">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C141">
-        <v>0.3513011</v>
+        <v>0.0544218</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>43050</v>
+        <v>43002</v>
       </c>
       <c r="B142">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C142">
-        <v>0.3011152</v>
+        <v>0.1041667</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>43053</v>
+        <v>43002</v>
       </c>
       <c r="B143">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C143">
-        <v>0.2363014</v>
+        <v>0.0841837</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>43053</v>
+        <v>43003</v>
       </c>
       <c r="B144">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="C144">
-        <v>0.2340426</v>
+        <v>0.1377246</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>43062</v>
+        <v>43004</v>
       </c>
       <c r="B145">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C145">
-        <v>0.3317647</v>
+        <v>0.09905659999999999</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>43063</v>
+        <v>43004</v>
       </c>
       <c r="B146">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C146">
-        <v>0.3663194</v>
+        <v>0.0943396</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>43064</v>
+        <v>43006</v>
       </c>
       <c r="B147">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C147">
-        <v>0.2549669</v>
+        <v>0.1329114</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>43066</v>
+        <v>43006</v>
       </c>
       <c r="B148">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="C148">
-        <v>0.2176235</v>
+        <v>0.07805910000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>43067</v>
+        <v>43006</v>
       </c>
       <c r="B149">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="C149">
-        <v>0.223565</v>
+        <v>0.0590717</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>43072</v>
+        <v>43006</v>
       </c>
       <c r="B150">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C150">
-        <v>0.5276381999999999</v>
+        <v>0.0888383</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>43073</v>
+        <v>43006</v>
       </c>
       <c r="B151">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="C151">
-        <v>0.4278075</v>
+        <v>0.07383969999999999</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>43073</v>
+        <v>43007</v>
       </c>
       <c r="B152">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C152">
-        <v>0.315197</v>
+        <v>0.08461539999999999</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>43073</v>
+        <v>43007</v>
       </c>
       <c r="B153">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C153">
-        <v>0.5288462</v>
+        <v>0.1066282</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>43074</v>
+        <v>43007</v>
       </c>
       <c r="B154">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C154">
-        <v>0.2943662</v>
+        <v>0.0835735</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>43078</v>
+        <v>43007</v>
       </c>
       <c r="B155">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C155">
-        <v>0.5905849</v>
+        <v>0.1384615</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>43079</v>
+        <v>43008</v>
       </c>
       <c r="B156">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C156">
-        <v>0.5490196000000001</v>
+        <v>0.08053689999999999</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>43081</v>
+        <v>43008</v>
       </c>
       <c r="B157">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="C157">
-        <v>0.4270073</v>
+        <v>0.1431767</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>43083</v>
+        <v>43008</v>
       </c>
       <c r="B158">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C158">
-        <v>0.5813952999999999</v>
+        <v>0.1163311</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>43088</v>
+        <v>43008</v>
       </c>
       <c r="B159">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="C159">
-        <v>0.2971429</v>
+        <v>0.09090910000000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>43088</v>
+        <v>43008</v>
       </c>
       <c r="B160">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="C160">
-        <v>0.4149933</v>
+        <v>0.064877</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>43090</v>
+        <v>43009</v>
       </c>
       <c r="B161">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C161">
-        <v>0.5082873</v>
+        <v>0.0887681</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>43091</v>
+        <v>43009</v>
       </c>
       <c r="B162">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C162">
-        <v>0.5403846</v>
+        <v>0.08860759999999999</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>43093</v>
+        <v>43009</v>
       </c>
       <c r="B163">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C163">
-        <v>0.3267717</v>
+        <v>0.2126582</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>43095</v>
+        <v>43009</v>
       </c>
       <c r="B164">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="C164">
-        <v>0.3736264</v>
+        <v>0.1840278</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>43096</v>
+        <v>43010</v>
       </c>
       <c r="B165">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="C165">
-        <v>0.3839662</v>
+        <v>0.0979782</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>43096</v>
+        <v>43010</v>
       </c>
       <c r="B166">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="C166">
-        <v>0.3533026</v>
+        <v>0.0917574</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>43098</v>
+        <v>43010</v>
       </c>
       <c r="B167">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="C167">
-        <v>0.3410138</v>
+        <v>0.1278863</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>43099</v>
+        <v>43010</v>
       </c>
       <c r="B168">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="C168">
-        <v>0.2560241</v>
+        <v>0.1332149</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>43103</v>
+        <v>43010</v>
       </c>
       <c r="B169">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C169">
-        <v>0.4689755</v>
+        <v>0.0822368</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>43104</v>
+        <v>43011</v>
       </c>
       <c r="B170">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="C170">
-        <v>0.5102564000000001</v>
+        <v>0.0763359</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>43104</v>
+        <v>43011</v>
       </c>
       <c r="B171">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="C171">
-        <v>0.5576923</v>
+        <v>0.2232824</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>43104</v>
+        <v>43012</v>
       </c>
       <c r="B172">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C172">
-        <v>0.4344392</v>
+        <v>0.2140078</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>43106</v>
+        <v>43012</v>
       </c>
       <c r="B173">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C173">
-        <v>0.4017857</v>
+        <v>0.1945525</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>43106</v>
+        <v>43013</v>
       </c>
       <c r="B174">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C174">
-        <v>0.400974</v>
+        <v>0.1122807</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>43106</v>
+        <v>43013</v>
       </c>
       <c r="B175">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C175">
-        <v>0.5909091</v>
+        <v>0.1679389</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>43109</v>
+        <v>43013</v>
       </c>
       <c r="B176">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="C176">
-        <v>0.4695122</v>
+        <v>0.1259542</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="2">
-        <v>43111</v>
+        <v>43014</v>
       </c>
       <c r="B177">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="C177">
-        <v>0.4267442</v>
+        <v>0.1254545</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="2">
-        <v>43114</v>
+        <v>43014</v>
       </c>
       <c r="B178">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="C178">
-        <v>0.3317972</v>
+        <v>0.1236364</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="2">
-        <v>43114</v>
+        <v>43015</v>
       </c>
       <c r="B179">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C179">
-        <v>0.451664</v>
+        <v>0.1941075</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="2">
-        <v>43114</v>
+        <v>43015</v>
       </c>
       <c r="B180">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C180">
-        <v>0.6212361</v>
+        <v>0.1403813</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="2">
-        <v>43115</v>
+        <v>43016</v>
       </c>
       <c r="B181">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C181">
-        <v>0.4154676</v>
+        <v>0.0821678</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="2">
-        <v>43115</v>
+        <v>43017</v>
       </c>
       <c r="B182">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="C182">
-        <v>0.6269231</v>
+        <v>0.2189189</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="2">
-        <v>43116</v>
+        <v>43018</v>
       </c>
       <c r="B183">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C183">
-        <v>0.5072464</v>
+        <v>0.2135922</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2">
-        <v>43116</v>
+        <v>43018</v>
       </c>
       <c r="B184">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C184">
-        <v>0.5191041</v>
+        <v>0.2144578</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="2">
-        <v>43118</v>
+        <v>43018</v>
       </c>
       <c r="B185">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="C185">
-        <v>0.6185853</v>
+        <v>0.1855422</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="2">
-        <v>43120</v>
+        <v>43018</v>
       </c>
       <c r="B186">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="C186">
-        <v>0.5660036000000001</v>
+        <v>0.1966019</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="2">
-        <v>43120</v>
+        <v>43019</v>
       </c>
       <c r="B187">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C187">
-        <v>0.3833635</v>
+        <v>0.1267606</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="2">
-        <v>43120</v>
+        <v>43019</v>
       </c>
       <c r="B188">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="C188">
-        <v>0.5944584000000001</v>
+        <v>0.1901408</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="2">
-        <v>43121</v>
+        <v>43019</v>
       </c>
       <c r="B189">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C189">
-        <v>0.3660856</v>
+        <v>0.1828442</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="2">
-        <v>43123</v>
+        <v>43019</v>
       </c>
       <c r="B190">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="C190">
-        <v>0.4397993</v>
+        <v>0.2189616</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="2">
-        <v>43124</v>
+        <v>43020</v>
       </c>
       <c r="B191">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="C191">
-        <v>0.3915663</v>
+        <v>0.0886364</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="2">
-        <v>43126</v>
+        <v>43020</v>
       </c>
       <c r="B192">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C192">
-        <v>0.5483871</v>
+        <v>0.1637168</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="2">
-        <v>43126</v>
+        <v>43020</v>
       </c>
       <c r="B193">
-        <v>209</v>
+        <v>103</v>
       </c>
       <c r="C193">
-        <v>0.4245723</v>
+        <v>0.1840909</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="2">
-        <v>43127</v>
+        <v>43020</v>
       </c>
       <c r="B194">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="C194">
-        <v>0.3636364</v>
+        <v>0.1438053</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="2">
-        <v>43127</v>
+        <v>43020</v>
       </c>
       <c r="B195">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="C195">
-        <v>0.5355932</v>
+        <v>0.1954545</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="2">
-        <v>43127</v>
+        <v>43021</v>
       </c>
       <c r="B196">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="C196">
-        <v>0.3723776</v>
+        <v>0.1709559</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="2">
-        <v>43128</v>
+        <v>43021</v>
       </c>
       <c r="B197">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="C197">
-        <v>0.5507246</v>
+        <v>0.2073955</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="2">
-        <v>43128</v>
+        <v>43021</v>
       </c>
       <c r="B198">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="C198">
-        <v>0.4456522</v>
+        <v>0.1268382</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2">
-        <v>43130</v>
+        <v>43021</v>
       </c>
       <c r="B199">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="C199">
-        <v>0.4609665</v>
+        <v>0.09003220000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2">
-        <v>43130</v>
+        <v>43021</v>
       </c>
       <c r="B200">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="C200">
-        <v>0.535316</v>
+        <v>0.2177122</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2">
-        <v>43131</v>
+        <v>43021</v>
       </c>
       <c r="B201">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="C201">
-        <v>0.3900344</v>
+        <v>0.1943888</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2">
-        <v>43131</v>
+        <v>43023</v>
       </c>
       <c r="B202">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C202">
-        <v>0.423913</v>
+        <v>0.2152174</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="2">
-        <v>43132</v>
+        <v>43034</v>
       </c>
       <c r="B203">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="C203">
-        <v>0.3333333</v>
+        <v>0.2209738</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="2">
-        <v>43133</v>
+        <v>43034</v>
       </c>
       <c r="B204">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="C204">
-        <v>0.3191176</v>
+        <v>0.2241993</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="2">
-        <v>43133</v>
+        <v>43035</v>
       </c>
       <c r="B205">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="C205">
-        <v>0.3642241</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="2">
-        <v>43134</v>
+        <v>43035</v>
       </c>
       <c r="B206">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C206">
-        <v>0.5736926</v>
+        <v>0.1889764</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="2">
-        <v>43134</v>
+        <v>43035</v>
       </c>
       <c r="B207">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="C207">
-        <v>0.3359746</v>
+        <v>0.1031308</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="2">
-        <v>43135</v>
+        <v>43036</v>
       </c>
       <c r="B208">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="C208">
-        <v>0.2556391</v>
+        <v>0.1393324</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="2">
-        <v>43136</v>
+        <v>43036</v>
       </c>
       <c r="B209">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="C209">
-        <v>0.4263658</v>
+        <v>0.1872279</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="2">
-        <v>43137</v>
+        <v>43037</v>
       </c>
       <c r="B210">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C210">
-        <v>0.4227941</v>
+        <v>0.1767372</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="2">
-        <v>43137</v>
+        <v>43037</v>
       </c>
       <c r="B211">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="C211">
-        <v>0.5514706</v>
+        <v>0.1193353</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="2">
-        <v>43137</v>
+        <v>43038</v>
       </c>
       <c r="B212">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="C212">
-        <v>0.5022971000000001</v>
+        <v>0.1458626</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="2">
-        <v>43138</v>
+        <v>43038</v>
       </c>
       <c r="B213">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="C213">
-        <v>0.3469055</v>
+        <v>0.1136045</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="2">
-        <v>43138</v>
+        <v>43040</v>
       </c>
       <c r="B214">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="C214">
-        <v>0.4769688</v>
+        <v>0.2715827</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="2">
-        <v>43138</v>
+        <v>43040</v>
       </c>
       <c r="B215">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="C215">
-        <v>0.3982169</v>
+        <v>0.4084778</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="2">
-        <v>43140</v>
+        <v>43042</v>
       </c>
       <c r="B216">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="C216">
-        <v>0.4984756</v>
+        <v>0.3282548</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="2">
-        <v>43145</v>
+        <v>43043</v>
       </c>
       <c r="B217">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="C217">
-        <v>0.374031</v>
+        <v>0.3365617</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="2">
-        <v>43145</v>
+        <v>43045</v>
       </c>
       <c r="B218">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="C218">
-        <v>0.6065891</v>
+        <v>0.3890411</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="2">
-        <v>43146</v>
+        <v>43046</v>
       </c>
       <c r="B219">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="C219">
-        <v>0.6424051</v>
+        <v>0.343879</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="2">
-        <v>43147</v>
+        <v>43048</v>
       </c>
       <c r="B220">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C220">
-        <v>0.3713235</v>
+        <v>0.2710997</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="2">
-        <v>43147</v>
+        <v>43050</v>
       </c>
       <c r="B221">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="C221">
-        <v>0.4797794</v>
+        <v>0.3011152</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="2">
-        <v>43148</v>
+        <v>43050</v>
       </c>
       <c r="B222">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="C222">
-        <v>0.4540902</v>
+        <v>0.3513011</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="2">
-        <v>43149</v>
+        <v>43053</v>
       </c>
       <c r="B223">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="C223">
-        <v>0.3625</v>
+        <v>0.2363014</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="2">
-        <v>43149</v>
+        <v>43053</v>
       </c>
       <c r="B224">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="C224">
-        <v>0.4791667</v>
+        <v>0.2340426</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="2">
-        <v>43150</v>
+        <v>43059</v>
       </c>
       <c r="B225">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C225">
-        <v>0.4237288</v>
+        <v>0.3988604</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="2">
-        <v>43151</v>
+        <v>43061</v>
       </c>
       <c r="B226">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="C226">
-        <v>0.585736</v>
+        <v>0.4081633</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="2">
-        <v>43151</v>
+        <v>43062</v>
       </c>
       <c r="B227">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="C227">
-        <v>0.5538695</v>
+        <v>0.3317647</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="2">
-        <v>43152</v>
+        <v>43063</v>
       </c>
       <c r="B228">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="C228">
-        <v>0.4393305</v>
+        <v>0.3663194</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="2">
-        <v>43155</v>
+        <v>43063</v>
       </c>
       <c r="B229">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="C229">
-        <v>0.3855799</v>
+        <v>0.4010417</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="2">
-        <v>43155</v>
+        <v>43064</v>
       </c>
       <c r="B230">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="C230">
-        <v>0.6169772</v>
+        <v>0.2549669</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="2">
-        <v>43155</v>
+        <v>43065</v>
       </c>
       <c r="B231">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C231">
-        <v>0.3726708</v>
+        <v>0.1949405</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="2">
-        <v>43158</v>
+        <v>43066</v>
       </c>
       <c r="B232">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="C232">
-        <v>0.4030303</v>
+        <v>0.188251</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="2">
-        <v>43159</v>
+        <v>43066</v>
       </c>
       <c r="B233">
-        <v>242</v>
+        <v>149</v>
       </c>
       <c r="C233">
-        <v>0.4646782</v>
+        <v>0.2176235</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="2">
-        <v>43159</v>
+        <v>43067</v>
       </c>
       <c r="B234">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="C234">
-        <v>0.43898</v>
+        <v>0.223565</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="2">
-        <v>43161</v>
+        <v>43070</v>
       </c>
       <c r="B235">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C235">
-        <v>0.6275229</v>
+        <v>0.2972973</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="2">
-        <v>43163</v>
+        <v>43070</v>
       </c>
       <c r="B236">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="C236">
-        <v>0.3631285</v>
+        <v>0.6732026</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="2">
-        <v>43164</v>
+        <v>43071</v>
       </c>
       <c r="B237">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="C237">
-        <v>0.5961071</v>
+        <v>0.7166667</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="2">
-        <v>43164</v>
+        <v>43072</v>
       </c>
       <c r="B238">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C238">
-        <v>0.3944954</v>
+        <v>0.5276381999999999</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="2">
-        <v>43166</v>
+        <v>43073</v>
       </c>
       <c r="B239">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="C239">
-        <v>0.6469003</v>
+        <v>0.2886957</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="2">
-        <v>43168</v>
+        <v>43073</v>
       </c>
       <c r="B240">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="C240">
-        <v>0.5582734</v>
+        <v>0.5288462</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="2">
-        <v>43171</v>
+        <v>43073</v>
       </c>
       <c r="B241">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="C241">
-        <v>0.5</v>
+        <v>0.315197</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="2">
-        <v>43172</v>
+        <v>43073</v>
       </c>
       <c r="B242">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="C242">
-        <v>0.4123711</v>
+        <v>0.4278075</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="2">
-        <v>43172</v>
+        <v>43074</v>
       </c>
       <c r="B243">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="C243">
-        <v>0.5270506</v>
+        <v>0.2943662</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="2">
-        <v>43172</v>
+        <v>43075</v>
       </c>
       <c r="B244">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="C244">
-        <v>0.2525773</v>
+        <v>0.6756757</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="2">
-        <v>43172</v>
+        <v>43078</v>
       </c>
       <c r="B245">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="C245">
-        <v>0.5953608</v>
+        <v>0.5905849</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="2">
-        <v>43173</v>
+        <v>43078</v>
       </c>
       <c r="B246">
-        <v>256</v>
+        <v>161</v>
       </c>
       <c r="C246">
-        <v>0.5809935000000001</v>
+        <v>0.3295292</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="2">
-        <v>43175</v>
+        <v>43079</v>
       </c>
       <c r="B247">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="C247">
-        <v>0.403397</v>
+        <v>0.5490196000000001</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="2">
-        <v>43176</v>
+        <v>43081</v>
       </c>
       <c r="B248">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="C248">
-        <v>0.592668</v>
+        <v>0.4270073</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="2">
-        <v>43176</v>
+        <v>43083</v>
       </c>
       <c r="B249">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="C249">
-        <v>0.4233871</v>
+        <v>0.5813952999999999</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="2">
-        <v>43176</v>
+        <v>43087</v>
       </c>
       <c r="B250">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="C250">
-        <v>0.5494505</v>
+        <v>0.7295775</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="2">
-        <v>43177</v>
+        <v>43088</v>
       </c>
       <c r="B251">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="C251">
-        <v>0.5670103</v>
+        <v>0.2971429</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="2">
-        <v>43177</v>
+        <v>43088</v>
       </c>
       <c r="B252">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="C252">
-        <v>0.4324324</v>
+        <v>0.4149933</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="2">
-        <v>43178</v>
+        <v>43089</v>
       </c>
       <c r="B253">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="C253">
-        <v>0.3315927</v>
+        <v>0.3305085</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="2">
-        <v>43179</v>
+        <v>43090</v>
       </c>
       <c r="B254">
-        <v>262</v>
+        <v>173</v>
       </c>
       <c r="C254">
-        <v>0.3502415</v>
+        <v>0.5082873</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="2">
-        <v>43180</v>
+        <v>43090</v>
       </c>
       <c r="B255">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="C255">
-        <v>0.4752137</v>
+        <v>0.6850829000000001</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="2">
-        <v>43182</v>
+        <v>43091</v>
       </c>
       <c r="B256">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="C256">
-        <v>0.5160681</v>
+        <v>0.5403846</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="2">
-        <v>43183</v>
+        <v>43093</v>
       </c>
       <c r="B257">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="C257">
-        <v>0.2880658</v>
+        <v>0.3267717</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="2">
-        <v>43183</v>
+        <v>43095</v>
       </c>
       <c r="B258">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C258">
-        <v>0.4403292</v>
+        <v>0.7197802</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="2">
-        <v>43185</v>
+        <v>43095</v>
       </c>
       <c r="B259">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="C259">
-        <v>0.372591</v>
+        <v>0.3736264</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="2">
-        <v>43189</v>
+        <v>43095</v>
       </c>
       <c r="B260">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="C260">
-        <v>0.4217252</v>
+        <v>0.4008942</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="2">
-        <v>43189</v>
+        <v>43096</v>
       </c>
       <c r="B261">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="C261">
-        <v>0.3628692</v>
+        <v>0.3839662</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="2">
-        <v>43192</v>
+        <v>43096</v>
       </c>
       <c r="B262">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C262">
-        <v>0.4662757</v>
+        <v>0.3533026</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="2">
-        <v>43192</v>
+        <v>43098</v>
       </c>
       <c r="B263">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="C263">
-        <v>0.3431085</v>
+        <v>0.3410138</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="2">
-        <v>43193</v>
+        <v>43099</v>
       </c>
       <c r="B264">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="C264">
-        <v>0.3198198</v>
+        <v>0.2560241</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="2">
-        <v>43197</v>
+        <v>43103</v>
       </c>
       <c r="B265">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="C265">
-        <v>0.4118896</v>
+        <v>0.4689755</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="2">
-        <v>43201</v>
+        <v>43104</v>
       </c>
       <c r="B266">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="C266">
-        <v>0.2924791</v>
+        <v>0.5102564000000001</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="2">
-        <v>43201</v>
+        <v>43104</v>
       </c>
       <c r="B267">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="C267">
-        <v>0.2928571</v>
+        <v>0.4344392</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="2">
-        <v>43202</v>
+        <v>43104</v>
       </c>
       <c r="B268">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c r="C268">
-        <v>0.3298969</v>
+        <v>0.5576923</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="2">
-        <v>43204</v>
+        <v>43106</v>
       </c>
       <c r="B269">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="C269">
-        <v>0.5169811</v>
+        <v>0.5909091</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="2">
-        <v>43205</v>
+        <v>43106</v>
       </c>
       <c r="B270">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="C270">
-        <v>0.2696897</v>
+        <v>0.400974</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="2">
-        <v>43206</v>
+        <v>43106</v>
       </c>
       <c r="B271">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="C271">
-        <v>0.4387528</v>
+        <v>0.2743506</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="2">
-        <v>43206</v>
+        <v>43106</v>
       </c>
       <c r="B272">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="C272">
-        <v>0.5033408</v>
+        <v>0.4017857</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="2">
-        <v>43207</v>
+        <v>43107</v>
       </c>
       <c r="B273">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="C273">
-        <v>0.3364486</v>
+        <v>0.2897059</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="2">
-        <v>43215</v>
+        <v>43107</v>
       </c>
       <c r="B274">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="C274">
-        <v>0.3725</v>
+        <v>0.6779412</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="2">
-        <v>43215</v>
+        <v>43109</v>
       </c>
       <c r="B275">
-        <v>298</v>
+        <v>192</v>
       </c>
       <c r="C275">
-        <v>0.35</v>
+        <v>0.4695122</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="2">
-        <v>43216</v>
+        <v>43111</v>
       </c>
       <c r="B276">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="C276">
-        <v>0.3418079</v>
+        <v>0.3188623</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="2">
-        <v>43222</v>
+        <v>43111</v>
       </c>
       <c r="B277">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="C277">
-        <v>0.2412587</v>
+        <v>0.4267442</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="2">
-        <v>43224</v>
+        <v>43114</v>
       </c>
       <c r="B278">
-        <v>307</v>
+        <v>197</v>
       </c>
       <c r="C278">
-        <v>0.2011494</v>
+        <v>0.451664</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="2">
-        <v>43225</v>
+        <v>43114</v>
       </c>
       <c r="B279">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="C279">
-        <v>0.1826625</v>
+        <v>0.6212361</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2">
-        <v>43226</v>
+        <v>43114</v>
       </c>
       <c r="B280">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="C280">
-        <v>0.1657609</v>
+        <v>0.3317972</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2">
-        <v>43228</v>
+        <v>43115</v>
       </c>
       <c r="B281">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="C281">
-        <v>0.2068966</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="2">
-        <v>43232</v>
+        <v>43115</v>
       </c>
       <c r="B282">
-        <v>315</v>
+        <v>198</v>
       </c>
       <c r="C282">
-        <v>0.2135417</v>
+        <v>0.6269231</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="2">
-        <v>43233</v>
+        <v>43115</v>
       </c>
       <c r="B283">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="C283">
-        <v>0.2086168</v>
+        <v>0.4154676</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="2">
-        <v>43234</v>
+        <v>43115</v>
       </c>
       <c r="B284">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="C284">
-        <v>0.1458333</v>
+        <v>0.6528777</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="2">
-        <v>43238</v>
+        <v>43116</v>
       </c>
       <c r="B285">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="C285">
-        <v>0.2558824</v>
+        <v>0.5072464</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="2">
-        <v>43239</v>
+        <v>43116</v>
       </c>
       <c r="B286">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="C286">
-        <v>0.2258065</v>
+        <v>0.5191041</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="2">
-        <v>43243</v>
+        <v>43118</v>
       </c>
       <c r="B287">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="C287">
-        <v>0.2008547</v>
+        <v>0.6185853</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="2">
-        <v>43244</v>
+        <v>43120</v>
       </c>
       <c r="B288">
-        <v>327</v>
+        <v>203</v>
       </c>
       <c r="C288">
-        <v>0.2469636</v>
+        <v>0.3833635</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="2">
-        <v>43247</v>
+        <v>43120</v>
       </c>
       <c r="B289">
-        <v>330</v>
+        <v>203</v>
       </c>
       <c r="C289">
-        <v>0.1504065</v>
+        <v>0.5660036000000001</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="2">
-        <v>43248</v>
+        <v>43120</v>
       </c>
       <c r="B290">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="C290">
-        <v>0.25</v>
+        <v>0.5944584000000001</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="2">
-        <v>43261</v>
+        <v>43120</v>
       </c>
       <c r="B291">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="C291">
-        <v>0.0943396</v>
+        <v>0.7443609</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B292">
+        <v>204</v>
+      </c>
+      <c r="C292">
+        <v>0.3660856</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B293">
+        <v>204</v>
+      </c>
+      <c r="C293">
+        <v>0.3323944</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B294">
+        <v>206</v>
+      </c>
+      <c r="C294">
+        <v>0.4397993</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B295">
+        <v>207</v>
+      </c>
+      <c r="C295">
+        <v>0.3915663</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B296">
+        <v>208</v>
+      </c>
+      <c r="C296">
+        <v>0.7441077</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B297">
+        <v>209</v>
+      </c>
+      <c r="C297">
+        <v>0.5483871</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B298">
+        <v>209</v>
+      </c>
+      <c r="C298">
+        <v>0.4245723</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B299">
+        <v>210</v>
+      </c>
+      <c r="C299">
+        <v>0.6898305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B300">
+        <v>210</v>
+      </c>
+      <c r="C300">
+        <v>0.2616984</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B301">
+        <v>210</v>
+      </c>
+      <c r="C301">
+        <v>0.5355932</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B302">
+        <v>210</v>
+      </c>
+      <c r="C302">
+        <v>0.3636364</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B303">
+        <v>210</v>
+      </c>
+      <c r="C303">
+        <v>0.3723776</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B304">
+        <v>211</v>
+      </c>
+      <c r="C304">
+        <v>0.3379416</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B305">
+        <v>211</v>
+      </c>
+      <c r="C305">
+        <v>0.4456522</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B306">
+        <v>211</v>
+      </c>
+      <c r="C306">
+        <v>0.3010753</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B307">
+        <v>211</v>
+      </c>
+      <c r="C307">
+        <v>0.5507246</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B308">
+        <v>212</v>
+      </c>
+      <c r="C308">
+        <v>0.3320826</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B309">
+        <v>213</v>
+      </c>
+      <c r="C309">
+        <v>0.535316</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B310">
+        <v>213</v>
+      </c>
+      <c r="C310">
+        <v>0.4609665</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B311">
+        <v>214</v>
+      </c>
+      <c r="C311">
+        <v>0.3900344</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B312">
+        <v>214</v>
+      </c>
+      <c r="C312">
+        <v>0.423913</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B313">
+        <v>215</v>
+      </c>
+      <c r="C313">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B314">
+        <v>215</v>
+      </c>
+      <c r="C314">
+        <v>0.2920792</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B315">
+        <v>216</v>
+      </c>
+      <c r="C315">
+        <v>0.3642241</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B316">
+        <v>216</v>
+      </c>
+      <c r="C316">
+        <v>0.3191176</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B317">
+        <v>217</v>
+      </c>
+      <c r="C317">
+        <v>0.3359746</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>43134</v>
+      </c>
+      <c r="B318">
+        <v>217</v>
+      </c>
+      <c r="C318">
+        <v>0.5736926</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>43135</v>
+      </c>
+      <c r="B319">
+        <v>218</v>
+      </c>
+      <c r="C319">
+        <v>0.2556391</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B320">
+        <v>219</v>
+      </c>
+      <c r="C320">
+        <v>0.7030995</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B321">
+        <v>219</v>
+      </c>
+      <c r="C321">
+        <v>0.4263658</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B322">
+        <v>220</v>
+      </c>
+      <c r="C322">
+        <v>0.4227941</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B323">
+        <v>220</v>
+      </c>
+      <c r="C323">
+        <v>0.5514706</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B324">
+        <v>220</v>
+      </c>
+      <c r="C324">
+        <v>0.5022971000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B325">
+        <v>221</v>
+      </c>
+      <c r="C325">
+        <v>0.3982169</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B326">
+        <v>221</v>
+      </c>
+      <c r="C326">
+        <v>0.3469055</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B327">
+        <v>221</v>
+      </c>
+      <c r="C327">
+        <v>0.4769688</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B328">
+        <v>221</v>
+      </c>
+      <c r="C328">
+        <v>0.6666666999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B329">
+        <v>223</v>
+      </c>
+      <c r="C329">
+        <v>0.4984756</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B330">
+        <v>223</v>
+      </c>
+      <c r="C330">
+        <v>0.7040998000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>43142</v>
+      </c>
+      <c r="B331">
+        <v>225</v>
+      </c>
+      <c r="C331">
+        <v>0.3075862</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B332">
+        <v>228</v>
+      </c>
+      <c r="C332">
+        <v>0.430622</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B333">
+        <v>228</v>
+      </c>
+      <c r="C333">
+        <v>0.374031</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B334">
+        <v>228</v>
+      </c>
+      <c r="C334">
+        <v>0.2583732</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B335">
+        <v>228</v>
+      </c>
+      <c r="C335">
+        <v>0.6065891</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B336">
+        <v>229</v>
+      </c>
+      <c r="C336">
+        <v>0.3402923</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>43146</v>
+      </c>
+      <c r="B337">
+        <v>229</v>
+      </c>
+      <c r="C337">
+        <v>0.6424051</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B338">
+        <v>230</v>
+      </c>
+      <c r="C338">
+        <v>0.3713235</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>43147</v>
+      </c>
+      <c r="B339">
+        <v>230</v>
+      </c>
+      <c r="C339">
+        <v>0.4797794</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B340">
+        <v>231</v>
+      </c>
+      <c r="C340">
+        <v>0.2956204</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B341">
+        <v>231</v>
+      </c>
+      <c r="C341">
+        <v>0.4540902</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>43148</v>
+      </c>
+      <c r="B342">
+        <v>231</v>
+      </c>
+      <c r="C342">
+        <v>0.2704508</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B343">
+        <v>232</v>
+      </c>
+      <c r="C343">
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B344">
+        <v>232</v>
+      </c>
+      <c r="C344">
+        <v>0.3292929</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>43149</v>
+      </c>
+      <c r="B345">
+        <v>232</v>
+      </c>
+      <c r="C345">
+        <v>0.4791667</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B346">
+        <v>233</v>
+      </c>
+      <c r="C346">
+        <v>0.4237288</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B347">
+        <v>233</v>
+      </c>
+      <c r="C347">
+        <v>0.6924101</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B348">
+        <v>234</v>
+      </c>
+      <c r="C348">
+        <v>0.585736</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B349">
+        <v>234</v>
+      </c>
+      <c r="C349">
+        <v>0.5538695</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B350">
+        <v>235</v>
+      </c>
+      <c r="C350">
+        <v>0.7485822</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B351">
+        <v>235</v>
+      </c>
+      <c r="C351">
+        <v>0.4393305</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B352">
+        <v>235</v>
+      </c>
+      <c r="C352">
+        <v>0.3078125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B353">
+        <v>237</v>
+      </c>
+      <c r="C353">
+        <v>0.2943038</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B354">
+        <v>238</v>
+      </c>
+      <c r="C354">
+        <v>0.3726708</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B355">
+        <v>238</v>
+      </c>
+      <c r="C355">
+        <v>0.6169772</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>43155</v>
+      </c>
+      <c r="B356">
+        <v>238</v>
+      </c>
+      <c r="C356">
+        <v>0.3855799</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B357">
+        <v>240</v>
+      </c>
+      <c r="C357">
+        <v>0.6780924</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B358">
+        <v>241</v>
+      </c>
+      <c r="C358">
+        <v>0.4030303</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B359">
+        <v>241</v>
+      </c>
+      <c r="C359">
+        <v>0.3363636</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B360">
+        <v>242</v>
+      </c>
+      <c r="C360">
+        <v>0.43898</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B361">
+        <v>242</v>
+      </c>
+      <c r="C361">
+        <v>0.4646782</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B362">
+        <v>243</v>
+      </c>
+      <c r="C362">
+        <v>0.3193431</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B363">
+        <v>244</v>
+      </c>
+      <c r="C363">
+        <v>0.6275229</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B364">
+        <v>246</v>
+      </c>
+      <c r="C364">
+        <v>0.3631285</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>43163</v>
+      </c>
+      <c r="B365">
+        <v>246</v>
+      </c>
+      <c r="C365">
+        <v>0.7392924</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B366">
+        <v>247</v>
+      </c>
+      <c r="C366">
+        <v>0.3944954</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B367">
+        <v>247</v>
+      </c>
+      <c r="C367">
+        <v>0.6550459</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B368">
+        <v>247</v>
+      </c>
+      <c r="C368">
+        <v>0.5961071</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B369">
+        <v>248</v>
+      </c>
+      <c r="C369">
+        <v>0.3452381</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B370">
+        <v>249</v>
+      </c>
+      <c r="C370">
+        <v>0.6469003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B371">
+        <v>251</v>
+      </c>
+      <c r="C371">
+        <v>0.5582734</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>43169</v>
+      </c>
+      <c r="B372">
+        <v>252</v>
+      </c>
+      <c r="C372">
+        <v>0.2711864</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B373">
+        <v>254</v>
+      </c>
+      <c r="C373">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B374">
+        <v>254</v>
+      </c>
+      <c r="C374">
+        <v>0.6770073</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B375">
+        <v>255</v>
+      </c>
+      <c r="C375">
+        <v>0.5953608</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B376">
+        <v>255</v>
+      </c>
+      <c r="C376">
+        <v>0.2525773</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B377">
+        <v>255</v>
+      </c>
+      <c r="C377">
+        <v>0.2757732</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B378">
+        <v>255</v>
+      </c>
+      <c r="C378">
+        <v>0.3228621</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B379">
+        <v>255</v>
+      </c>
+      <c r="C379">
+        <v>0.4123711</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B380">
+        <v>255</v>
+      </c>
+      <c r="C380">
+        <v>0.5270506</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B381">
+        <v>256</v>
+      </c>
+      <c r="C381">
+        <v>0.327381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B382">
+        <v>256</v>
+      </c>
+      <c r="C382">
+        <v>0.5809935000000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B383">
+        <v>256</v>
+      </c>
+      <c r="C383">
+        <v>0.264881</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B384">
+        <v>257</v>
+      </c>
+      <c r="C384">
+        <v>0.3484848</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B385">
+        <v>258</v>
+      </c>
+      <c r="C385">
+        <v>0.403397</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B386">
+        <v>258</v>
+      </c>
+      <c r="C386">
+        <v>0.3363844</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B387">
+        <v>259</v>
+      </c>
+      <c r="C387">
+        <v>0.592668</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B388">
+        <v>259</v>
+      </c>
+      <c r="C388">
+        <v>0.4233871</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B389">
+        <v>259</v>
+      </c>
+      <c r="C389">
+        <v>0.5494505</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B390">
+        <v>259</v>
+      </c>
+      <c r="C390">
+        <v>0.3449692</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B391">
+        <v>260</v>
+      </c>
+      <c r="C391">
+        <v>0.2927835</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B392">
+        <v>260</v>
+      </c>
+      <c r="C392">
+        <v>0.4324324</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B393">
+        <v>260</v>
+      </c>
+      <c r="C393">
+        <v>0.5670103</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B394">
+        <v>261</v>
+      </c>
+      <c r="C394">
+        <v>0.3315927</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B395">
+        <v>261</v>
+      </c>
+      <c r="C395">
+        <v>0.2719101</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B396">
+        <v>262</v>
+      </c>
+      <c r="C396">
+        <v>0.3502415</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B397">
+        <v>262</v>
+      </c>
+      <c r="C397">
+        <v>0.2491909</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B398">
+        <v>263</v>
+      </c>
+      <c r="C398">
+        <v>0.4752137</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B399">
+        <v>265</v>
+      </c>
+      <c r="C399">
+        <v>0.5160681</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B400">
+        <v>266</v>
+      </c>
+      <c r="C400">
+        <v>0.2694878</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B401">
+        <v>266</v>
+      </c>
+      <c r="C401">
+        <v>0.2880658</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B402">
+        <v>266</v>
+      </c>
+      <c r="C402">
+        <v>0.2880658</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B403">
+        <v>266</v>
+      </c>
+      <c r="C403">
+        <v>0.4403292</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="2">
+        <v>43183</v>
+      </c>
+      <c r="B404">
+        <v>266</v>
+      </c>
+      <c r="C404">
+        <v>0.3318486</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B405">
+        <v>267</v>
+      </c>
+      <c r="C405">
+        <v>0.3086053</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="2">
+        <v>43184</v>
+      </c>
+      <c r="B406">
+        <v>267</v>
+      </c>
+      <c r="C406">
+        <v>0.2696391</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B407">
+        <v>268</v>
+      </c>
+      <c r="C407">
+        <v>0.372591</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B408">
+        <v>269</v>
+      </c>
+      <c r="C408">
+        <v>0.3031088</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B409">
+        <v>271</v>
+      </c>
+      <c r="C409">
+        <v>0.6512605</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B410">
+        <v>271</v>
+      </c>
+      <c r="C410">
+        <v>0.2478992</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B411">
+        <v>271</v>
+      </c>
+      <c r="C411">
+        <v>0.2966752</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B412">
+        <v>272</v>
+      </c>
+      <c r="C412">
+        <v>0.4217252</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B413">
+        <v>272</v>
+      </c>
+      <c r="C413">
+        <v>0.3628692</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B414">
+        <v>273</v>
+      </c>
+      <c r="C414">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B415">
+        <v>274</v>
+      </c>
+      <c r="C415">
+        <v>0.2094118</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B416">
+        <v>275</v>
+      </c>
+      <c r="C416">
+        <v>0.4662757</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B417">
+        <v>275</v>
+      </c>
+      <c r="C417">
+        <v>0.3431085</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B418">
+        <v>276</v>
+      </c>
+      <c r="C418">
+        <v>0.3198198</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B419">
+        <v>278</v>
+      </c>
+      <c r="C419">
+        <v>0.2135678</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B420">
+        <v>279</v>
+      </c>
+      <c r="C420">
+        <v>0.5952891</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B421">
+        <v>280</v>
+      </c>
+      <c r="C421">
+        <v>0.5641026</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B422">
+        <v>280</v>
+      </c>
+      <c r="C422">
+        <v>0.5927602</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="2">
+        <v>43197</v>
+      </c>
+      <c r="B423">
+        <v>280</v>
+      </c>
+      <c r="C423">
+        <v>0.4118896</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B424">
+        <v>281</v>
+      </c>
+      <c r="C424">
+        <v>0.2231076</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B425">
+        <v>281</v>
+      </c>
+      <c r="C425">
+        <v>0.2566735</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B426">
+        <v>283</v>
+      </c>
+      <c r="C426">
+        <v>0.2057143</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B427">
+        <v>284</v>
+      </c>
+      <c r="C427">
+        <v>0.2534819</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B428">
+        <v>284</v>
+      </c>
+      <c r="C428">
+        <v>0.264624</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B429">
+        <v>284</v>
+      </c>
+      <c r="C429">
+        <v>0.2924791</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B430">
+        <v>284</v>
+      </c>
+      <c r="C430">
+        <v>0.2928571</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B431">
+        <v>285</v>
+      </c>
+      <c r="C431">
+        <v>0.3298969</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B432">
+        <v>285</v>
+      </c>
+      <c r="C432">
+        <v>0.2749141</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B433">
+        <v>287</v>
+      </c>
+      <c r="C433">
+        <v>0.2301887</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="2">
+        <v>43204</v>
+      </c>
+      <c r="B434">
+        <v>287</v>
+      </c>
+      <c r="C434">
+        <v>0.5169811</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B435">
+        <v>288</v>
+      </c>
+      <c r="C435">
+        <v>0.2696897</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B436">
+        <v>288</v>
+      </c>
+      <c r="C436">
+        <v>0.5315315</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B437">
+        <v>289</v>
+      </c>
+      <c r="C437">
+        <v>0.5033408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B438">
+        <v>289</v>
+      </c>
+      <c r="C438">
+        <v>0.4387528</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B439">
+        <v>290</v>
+      </c>
+      <c r="C439">
+        <v>0.3364486</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B440">
+        <v>292</v>
+      </c>
+      <c r="C440">
+        <v>0.2171429</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B441">
+        <v>293</v>
+      </c>
+      <c r="C441">
+        <v>0.5496368</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B442">
+        <v>293</v>
+      </c>
+      <c r="C442">
+        <v>0.3888889</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="2">
+        <v>43212</v>
+      </c>
+      <c r="B443">
+        <v>295</v>
+      </c>
+      <c r="C443">
+        <v>0.5516432</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B444">
+        <v>296</v>
+      </c>
+      <c r="C444">
+        <v>0.540305</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B445">
+        <v>296</v>
+      </c>
+      <c r="C445">
+        <v>0.2135076</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B446">
+        <v>296</v>
+      </c>
+      <c r="C446">
+        <v>0.2200436</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B447">
+        <v>296</v>
+      </c>
+      <c r="C447">
+        <v>0.414966</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B448">
+        <v>298</v>
+      </c>
+      <c r="C448">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B449">
+        <v>298</v>
+      </c>
+      <c r="C449">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B450">
+        <v>299</v>
+      </c>
+      <c r="C450">
+        <v>0.3418079</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="2">
+        <v>43218</v>
+      </c>
+      <c r="B451">
+        <v>301</v>
+      </c>
+      <c r="C451">
+        <v>0.5684932</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B452">
+        <v>305</v>
+      </c>
+      <c r="C452">
+        <v>0.2412587</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B453">
+        <v>306</v>
+      </c>
+      <c r="C453">
+        <v>0.1147059</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B454">
+        <v>306</v>
+      </c>
+      <c r="C454">
+        <v>0.2823529</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B455">
+        <v>306</v>
+      </c>
+      <c r="C455">
+        <v>0.2661064</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B456">
+        <v>307</v>
+      </c>
+      <c r="C456">
+        <v>0.2011494</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="2">
+        <v>43225</v>
+      </c>
+      <c r="B457">
+        <v>308</v>
+      </c>
+      <c r="C457">
+        <v>0.1826625</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B458">
+        <v>309</v>
+      </c>
+      <c r="C458">
+        <v>0.1657609</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="2">
+        <v>43226</v>
+      </c>
+      <c r="B459">
+        <v>309</v>
+      </c>
+      <c r="C459">
+        <v>0.1168478</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B460">
+        <v>311</v>
+      </c>
+      <c r="C460">
+        <v>0.2068966</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="2">
+        <v>43232</v>
+      </c>
+      <c r="B461">
+        <v>315</v>
+      </c>
+      <c r="C461">
+        <v>0.2135417</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B462">
+        <v>316</v>
+      </c>
+      <c r="C462">
+        <v>0.2086168</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="2">
+        <v>43233</v>
+      </c>
+      <c r="B463">
+        <v>316</v>
+      </c>
+      <c r="C463">
+        <v>0.1375661</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B464">
+        <v>317</v>
+      </c>
+      <c r="C464">
+        <v>0.2436548</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B465">
+        <v>317</v>
+      </c>
+      <c r="C465">
+        <v>0.1015228</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B466">
+        <v>317</v>
+      </c>
+      <c r="C466">
+        <v>0.1458333</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B467">
+        <v>318</v>
+      </c>
+      <c r="C467">
+        <v>0.1153846</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B468">
+        <v>320</v>
+      </c>
+      <c r="C468">
+        <v>0.2754491</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B469">
+        <v>321</v>
+      </c>
+      <c r="C469">
+        <v>0.2558824</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2">
+        <v>43239</v>
+      </c>
+      <c r="B470">
+        <v>322</v>
+      </c>
+      <c r="C470">
+        <v>0.2258065</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B471">
+        <v>326</v>
+      </c>
+      <c r="C471">
+        <v>0.2008547</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B472">
+        <v>327</v>
+      </c>
+      <c r="C472">
+        <v>0.2469636</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2">
+        <v>43247</v>
+      </c>
+      <c r="B473">
+        <v>330</v>
+      </c>
+      <c r="C473">
+        <v>0.1504065</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B474">
+        <v>331</v>
+      </c>
+      <c r="C474">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B475">
+        <v>331</v>
+      </c>
+      <c r="C475">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B476">
+        <v>335</v>
+      </c>
+      <c r="C476">
+        <v>0.0662021</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="2">
+        <v>43261</v>
+      </c>
+      <c r="B477">
+        <v>344</v>
+      </c>
+      <c r="C477">
+        <v>0.0943396</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="2">
         <v>43265</v>
       </c>
-      <c r="B292">
+      <c r="B478">
         <v>348</v>
       </c>
-      <c r="C292">
+      <c r="C478">
+        <v>0.1434109</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B479">
+        <v>348</v>
+      </c>
+      <c r="C479">
         <v>0.1046512</v>
       </c>
     </row>
